--- a/client/public/templates/Stock Data.xlsx
+++ b/client/public/templates/Stock Data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9255FC29-3A82-4BDB-A3D5-9190A21ED4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72B53421-F3A3-4422-A512-5BB4FBFC0373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,8 +30,108 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F822D681-0EAE-4E9B-A455-EBB00BC11D69}</author>
+    <author>tc={420E1286-AF6C-4897-BC09-D76D56B716BB}</author>
+    <author>tc={55EBDCFF-9B44-4D91-B08E-88AC7C6BEEB4}</author>
+    <author>tc={850B46C8-7988-43E4-8D59-C028C1E1A9CF}</author>
+    <author>tc={1863AC7F-0513-48A0-8A84-D688EFE67609}</author>
+    <author>tc={8064FE14-C340-4A51-A672-5E6C0C3B25DF}</author>
+    <author>tc={7EA48935-1464-445E-8D3F-2C95EAFA1621}</author>
+    <author>tc={DDCAD24E-4B91-44F7-A0C2-B7C9FF4BFA6C}</author>
+    <author>tc={E1EBB7E0-1C19-4A72-BDD6-27D7771C580F}</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{F822D681-0EAE-4E9B-A455-EBB00BC11D69}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Stock fisico</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{420E1286-AF6C-4897-BC09-D76D56B716BB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ordenes de venta pendientes de entregar</t>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="2" shapeId="0" xr:uid="{55EBDCFF-9B44-4D91-B08E-88AC7C6BEEB4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Tiempo de entrega de proveedor</t>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="3" shapeId="0" xr:uid="{850B46C8-7988-43E4-8D59-C028C1E1A9CF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Lote optimo de compra a partir del costo del inventario y del costo de la compra</t>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="4" shapeId="0" xr:uid="{1863AC7F-0513-48A0-8A84-D688EFE67609}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Nivel de Servicio 
+97 - 99 para productos A
+95 - 98 para productos B
+90 - 95 para productos C</t>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="5" shapeId="0" xr:uid="{8064FE14-C340-4A51-A672-5E6C0C3B25DF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Nivel de certeza del proveedor 
+Días demorados de los pedidos tradicionales
+Ejemplo: Si normalmente demora 15 días, pero a veces demora 40 días, este parametro seria:
+Lead time = 15
+Desv Est Lt Days = 25</t>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="6" shapeId="0" xr:uid="{7EA48935-1464-445E-8D3F-2C95EAFA1621}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ordenes de compra pendiente de ingreso</t>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="7" shapeId="0" xr:uid="{DDCAD24E-4B91-44F7-A0C2-B7C9FF4BFA6C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    ABC segun Pareto 
+A = Item 80% de la venta
+B = Item 15% de la venta
+C = Item 5% de la venta</t>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="8" shapeId="0" xr:uid="{E1EBB7E0-1C19-4A72-BDD6-27D7771C580F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Categorización del producto segun lo estrategico del mismo</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Family</t>
   </si>
@@ -57,16 +157,16 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Available Stock</t>
-  </si>
-  <si>
-    <t>Pending Stock</t>
-  </si>
-  <si>
-    <t>Safety Lead Time</t>
-  </si>
-  <si>
-    <t>Safety stock</t>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Sales Order Pending Deliverys</t>
+  </si>
+  <si>
+    <t>Safety Lead Time (days)</t>
+  </si>
+  <si>
+    <t>Safety stock (days)</t>
   </si>
   <si>
     <t>Lead Time</t>
@@ -75,7 +175,7 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Optimal Batch</t>
+    <t>EOQ (Economical order quantity)</t>
   </si>
   <si>
     <t>Service Level</t>
@@ -88,6 +188,12 @@
   </si>
   <si>
     <t>Lot Sizing</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>XYZ</t>
   </si>
 </sst>
 </file>
@@ -199,6 +305,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="GARCIA , MATIAS NICOLAS" id="{C7861E8F-5ED8-47F7-8704-334A9BFE4329}" userId="S::garciamatias159@ies21.onmicrosoft.com::0ed3d248-6599-4c4c-b5bc-25771ec13e7d" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,12 +628,54 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="I1" dT="2024-04-23T18:11:08.09" personId="{C7861E8F-5ED8-47F7-8704-334A9BFE4329}" id="{F822D681-0EAE-4E9B-A455-EBB00BC11D69}">
+    <text>Stock fisico</text>
+  </threadedComment>
+  <threadedComment ref="J1" dT="2024-04-23T18:09:32.08" personId="{C7861E8F-5ED8-47F7-8704-334A9BFE4329}" id="{420E1286-AF6C-4897-BC09-D76D56B716BB}">
+    <text>Ordenes de venta pendientes de entregar</text>
+  </threadedComment>
+  <threadedComment ref="M1" dT="2024-04-23T18:12:43.18" personId="{C7861E8F-5ED8-47F7-8704-334A9BFE4329}" id="{55EBDCFF-9B44-4D91-B08E-88AC7C6BEEB4}">
+    <text>Tiempo de entrega de proveedor</text>
+  </threadedComment>
+  <threadedComment ref="O1" dT="2024-04-23T18:15:20.09" personId="{C7861E8F-5ED8-47F7-8704-334A9BFE4329}" id="{850B46C8-7988-43E4-8D59-C028C1E1A9CF}">
+    <text>Lote optimo de compra a partir del costo del inventario y del costo de la compra</text>
+  </threadedComment>
+  <threadedComment ref="P1" dT="2024-04-23T18:15:32.86" personId="{C7861E8F-5ED8-47F7-8704-334A9BFE4329}" id="{1863AC7F-0513-48A0-8A84-D688EFE67609}">
+    <text>Nivel de Servicio 
+97 - 99 para productos A
+95 - 98 para productos B
+90 - 95 para productos C</text>
+  </threadedComment>
+  <threadedComment ref="Q1" dT="2024-04-23T18:18:05.68" personId="{C7861E8F-5ED8-47F7-8704-334A9BFE4329}" id="{8064FE14-C340-4A51-A672-5E6C0C3B25DF}">
+    <text>Nivel de certeza del proveedor 
+Días demorados de los pedidos tradicionales
+Ejemplo: Si normalmente demora 15 días, pero a veces demora 40 días, este parametro seria:
+Lead time = 15
+Desv Est Lt Days = 25</text>
+  </threadedComment>
+  <threadedComment ref="R1" dT="2024-04-23T18:18:30.37" personId="{C7861E8F-5ED8-47F7-8704-334A9BFE4329}" id="{7EA48935-1464-445E-8D3F-2C95EAFA1621}">
+    <text>Ordenes de compra pendiente de ingreso</text>
+  </threadedComment>
+  <threadedComment ref="T1" dT="2024-04-23T18:19:24.23" personId="{C7861E8F-5ED8-47F7-8704-334A9BFE4329}" id="{DDCAD24E-4B91-44F7-A0C2-B7C9FF4BFA6C}">
+    <text>ABC segun Pareto 
+A = Item 80% de la venta
+B = Item 15% de la venta
+C = Item 5% de la venta</text>
+  </threadedComment>
+  <threadedComment ref="U1" dT="2024-04-23T18:21:06.92" personId="{C7861E8F-5ED8-47F7-8704-334A9BFE4329}" id="{E1EBB7E0-1C19-4A72-BDD6-27D7771C580F}">
+    <text>Categorización del producto segun lo estrategico del mismo</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -535,12 +689,12 @@
     <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" customWidth="1"/>
     <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -603,9 +757,13 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
@@ -623,5 +781,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/client/public/templates/Stock Data.xlsx
+++ b/client/public/templates/Stock Data.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72B53421-F3A3-4422-A512-5BB4FBFC0373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mngar\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DB9D68-6936-4FAD-B860-F318BF312A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -131,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Family</t>
   </si>
@@ -194,13 +199,26 @@
   </si>
   <si>
     <t>XYZ</t>
+  </si>
+  <si>
+    <t>Purchase unit</t>
+  </si>
+  <si>
+    <t>Make to order</t>
+  </si>
+  <si>
+    <t>Slow moving</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,8 +239,22 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +264,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,10 +311,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
@@ -290,8 +330,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{1E5223AF-1E53-47F1-8DD1-A406CD07DA2E}"/>
+    <cellStyle name="Currency 2" xfId="1" xr:uid="{B6D32D33-ED22-4CCB-B251-267B2EB9FE1D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -674,11 +719,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -699,7 +744,7 @@
     <col min="17" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="4" customFormat="1">
+    <row r="1" spans="1:36" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,9 +808,15 @@
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
+      <c r="V1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
@@ -781,6 +832,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/client/public/templates/Stock Data.xlsx
+++ b/client/public/templates/Stock Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mngar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mngar\Desktop\Main\Projects\dta-forecast prod\client\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DB9D68-6936-4FAD-B860-F318BF312A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A79FA3-3AD0-452A-8B5C-E01F7285DBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     Tiempo de entrega de proveedor</t>
       </text>
     </comment>
-    <comment ref="O1" authorId="3" shapeId="0" xr:uid="{850B46C8-7988-43E4-8D59-C028C1E1A9CF}">
+    <comment ref="P1" authorId="3" shapeId="0" xr:uid="{850B46C8-7988-43E4-8D59-C028C1E1A9CF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -81,7 +81,7 @@
     Lote optimo de compra a partir del costo del inventario y del costo de la compra</t>
       </text>
     </comment>
-    <comment ref="P1" authorId="4" shapeId="0" xr:uid="{1863AC7F-0513-48A0-8A84-D688EFE67609}">
+    <comment ref="Q1" authorId="4" shapeId="0" xr:uid="{1863AC7F-0513-48A0-8A84-D688EFE67609}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -92,7 +92,7 @@
 90 - 95 para productos C</t>
       </text>
     </comment>
-    <comment ref="Q1" authorId="5" shapeId="0" xr:uid="{8064FE14-C340-4A51-A672-5E6C0C3B25DF}">
+    <comment ref="R1" authorId="5" shapeId="0" xr:uid="{8064FE14-C340-4A51-A672-5E6C0C3B25DF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -104,7 +104,7 @@
 Desv Est Lt Days = 25</t>
       </text>
     </comment>
-    <comment ref="R1" authorId="6" shapeId="0" xr:uid="{7EA48935-1464-445E-8D3F-2C95EAFA1621}">
+    <comment ref="S1" authorId="6" shapeId="0" xr:uid="{7EA48935-1464-445E-8D3F-2C95EAFA1621}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -112,7 +112,7 @@
     Ordenes de compra pendiente de ingreso</t>
       </text>
     </comment>
-    <comment ref="T1" authorId="7" shapeId="0" xr:uid="{DDCAD24E-4B91-44F7-A0C2-B7C9FF4BFA6C}">
+    <comment ref="U1" authorId="7" shapeId="0" xr:uid="{DDCAD24E-4B91-44F7-A0C2-B7C9FF4BFA6C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -123,7 +123,7 @@
 C = Item 5% de la venta</t>
       </text>
     </comment>
-    <comment ref="U1" authorId="8" shapeId="0" xr:uid="{E1EBB7E0-1C19-4A72-BDD6-27D7771C580F}">
+    <comment ref="V1" authorId="8" shapeId="0" xr:uid="{E1EBB7E0-1C19-4A72-BDD6-27D7771C580F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Family</t>
   </si>
@@ -208,6 +208,18 @@
   </si>
   <si>
     <t>Slow moving</t>
+  </si>
+  <si>
+    <t>Cost Price</t>
+  </si>
+  <si>
+    <t>DRP Lot sizing</t>
+  </si>
+  <si>
+    <t>DRP safety stock (days)</t>
+  </si>
+  <si>
+    <t>DRP lead time</t>
   </si>
 </sst>
 </file>
@@ -684,32 +696,32 @@
   <threadedComment ref="M1" dT="2024-04-23T18:12:43.18" personId="{C7861E8F-5ED8-47F7-8704-334A9BFE4329}" id="{55EBDCFF-9B44-4D91-B08E-88AC7C6BEEB4}">
     <text>Tiempo de entrega de proveedor</text>
   </threadedComment>
-  <threadedComment ref="O1" dT="2024-04-23T18:15:20.09" personId="{C7861E8F-5ED8-47F7-8704-334A9BFE4329}" id="{850B46C8-7988-43E4-8D59-C028C1E1A9CF}">
+  <threadedComment ref="P1" dT="2024-04-23T18:15:20.09" personId="{C7861E8F-5ED8-47F7-8704-334A9BFE4329}" id="{850B46C8-7988-43E4-8D59-C028C1E1A9CF}">
     <text>Lote optimo de compra a partir del costo del inventario y del costo de la compra</text>
   </threadedComment>
-  <threadedComment ref="P1" dT="2024-04-23T18:15:32.86" personId="{C7861E8F-5ED8-47F7-8704-334A9BFE4329}" id="{1863AC7F-0513-48A0-8A84-D688EFE67609}">
+  <threadedComment ref="Q1" dT="2024-04-23T18:15:32.86" personId="{C7861E8F-5ED8-47F7-8704-334A9BFE4329}" id="{1863AC7F-0513-48A0-8A84-D688EFE67609}">
     <text>Nivel de Servicio 
 97 - 99 para productos A
 95 - 98 para productos B
 90 - 95 para productos C</text>
   </threadedComment>
-  <threadedComment ref="Q1" dT="2024-04-23T18:18:05.68" personId="{C7861E8F-5ED8-47F7-8704-334A9BFE4329}" id="{8064FE14-C340-4A51-A672-5E6C0C3B25DF}">
+  <threadedComment ref="R1" dT="2024-04-23T18:18:05.68" personId="{C7861E8F-5ED8-47F7-8704-334A9BFE4329}" id="{8064FE14-C340-4A51-A672-5E6C0C3B25DF}">
     <text>Nivel de certeza del proveedor 
 Días demorados de los pedidos tradicionales
 Ejemplo: Si normalmente demora 15 días, pero a veces demora 40 días, este parametro seria:
 Lead time = 15
 Desv Est Lt Days = 25</text>
   </threadedComment>
-  <threadedComment ref="R1" dT="2024-04-23T18:18:30.37" personId="{C7861E8F-5ED8-47F7-8704-334A9BFE4329}" id="{7EA48935-1464-445E-8D3F-2C95EAFA1621}">
+  <threadedComment ref="S1" dT="2024-04-23T18:18:30.37" personId="{C7861E8F-5ED8-47F7-8704-334A9BFE4329}" id="{7EA48935-1464-445E-8D3F-2C95EAFA1621}">
     <text>Ordenes de compra pendiente de ingreso</text>
   </threadedComment>
-  <threadedComment ref="T1" dT="2024-04-23T18:19:24.23" personId="{C7861E8F-5ED8-47F7-8704-334A9BFE4329}" id="{DDCAD24E-4B91-44F7-A0C2-B7C9FF4BFA6C}">
+  <threadedComment ref="U1" dT="2024-04-23T18:19:24.23" personId="{C7861E8F-5ED8-47F7-8704-334A9BFE4329}" id="{DDCAD24E-4B91-44F7-A0C2-B7C9FF4BFA6C}">
     <text>ABC segun Pareto 
 A = Item 80% de la venta
 B = Item 15% de la venta
 C = Item 5% de la venta</text>
   </threadedComment>
-  <threadedComment ref="U1" dT="2024-04-23T18:21:06.92" personId="{C7861E8F-5ED8-47F7-8704-334A9BFE4329}" id="{E1EBB7E0-1C19-4A72-BDD6-27D7771C580F}">
+  <threadedComment ref="V1" dT="2024-04-23T18:21:06.92" personId="{C7861E8F-5ED8-47F7-8704-334A9BFE4329}" id="{E1EBB7E0-1C19-4A72-BDD6-27D7771C580F}">
     <text>Categorización del producto segun lo estrategico del mismo</text>
   </threadedComment>
 </ThreadedComments>
@@ -717,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ1"/>
+  <dimension ref="A1:AK1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,14 +749,17 @@
     <col min="10" max="10" width="27.5703125" customWidth="1"/>
     <col min="11" max="11" width="24.140625" customWidth="1"/>
     <col min="12" max="12" width="19.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" customWidth="1"/>
+    <col min="16" max="16" width="30.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" customWidth="1"/>
+    <col min="27" max="27" width="21.85546875" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,42 +800,50 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
@@ -829,6 +852,7 @@
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
